--- a/examples/Phonon/C/Kappa.xlsx
+++ b/examples/Phonon/C/Kappa.xlsx
@@ -14,18 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Temp</t>
   </si>
   <si>
     <t>Kappa</t>
-  </si>
-  <si>
-    <t>R_A</t>
-  </si>
-  <si>
-    <t>R_O</t>
   </si>
   <si>
     <t>TA_N</t>
@@ -422,15 +416,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -474,805 +468,803 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C2">
-        <v>3155.740898295101</v>
+        <v>4454.693985488922</v>
       </c>
       <c r="D2">
-        <v>0.8192234872458919</v>
+        <v>3.225459750119966e-10</v>
       </c>
       <c r="E2">
-        <v>0.1807765127541081</v>
+        <v>1.795430828991166e-10</v>
       </c>
       <c r="F2">
-        <v>6.37127851875549e-11</v>
+        <v>5.64027442100744e-11</v>
       </c>
       <c r="G2">
-        <v>5.785990133344232e-11</v>
+        <v>1.553502324877119e-10</v>
       </c>
       <c r="H2">
-        <v>5.640274421007439e-11</v>
+        <v>9.229083908963052e-11</v>
       </c>
       <c r="I2">
-        <v>3.068646567658506e-11</v>
+        <v>4.612516690535234e-11</v>
       </c>
       <c r="J2">
-        <v>2.802555180842319e-11</v>
+        <v>6.722891392131781e-11</v>
       </c>
       <c r="K2">
-        <v>4.612516690535234e-11</v>
+        <v>1.329833895283224e-10</v>
       </c>
       <c r="L2">
-        <v>1.991967819890898e-11</v>
+        <v>9.314323296899238e-11</v>
       </c>
       <c r="M2">
-        <v>3.722965416137701e-11</v>
+        <v>1.479249954844659e-18</v>
       </c>
       <c r="N2">
-        <v>9.314323296899238e-11</v>
+        <v>1.824293491455816e-13</v>
       </c>
       <c r="O2">
-        <v>4.382962829169359e-19</v>
-      </c>
-      <c r="P2">
-        <v>4.297062972716319e-14</v>
-      </c>
-      <c r="Q2">
-        <v>1.454939734176238e-15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>1.454939734176238e-15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="C3">
-        <v>2328.275297214991</v>
+        <v>3080.294993976255</v>
       </c>
       <c r="D3">
-        <v>0.7611612387272595</v>
+        <v>1.321148313649138e-10</v>
       </c>
       <c r="E3">
-        <v>0.2388387612727405</v>
+        <v>9.286216975874117e-11</v>
       </c>
       <c r="F3">
-        <v>3.43905745951983e-11</v>
+        <v>5.64027442100744e-11</v>
       </c>
       <c r="G3">
-        <v>4.02931273217378e-11</v>
+        <v>6.363145522696678e-11</v>
       </c>
       <c r="H3">
-        <v>5.640274421007441e-11</v>
+        <v>4.606177649390623e-11</v>
       </c>
       <c r="I3">
-        <v>1.656378988623667e-11</v>
+        <v>4.612516690535233e-11</v>
       </c>
       <c r="J3">
-        <v>1.918810972652009e-11</v>
+        <v>3.442120392771473e-11</v>
       </c>
       <c r="K3">
-        <v>4.612516690535231e-11</v>
+        <v>6.321164652102126e-11</v>
       </c>
       <c r="L3">
-        <v>1.254417052759283e-11</v>
+        <v>9.314323296899241e-11</v>
       </c>
       <c r="M3">
-        <v>2.490463453886263e-11</v>
+        <v>7.573759768804657e-19</v>
       </c>
       <c r="N3">
-        <v>9.314323296899238e-11</v>
+        <v>7.817819819526517e-14</v>
       </c>
       <c r="O3">
-        <v>2.760116533820939e-19</v>
-      </c>
-      <c r="P3">
-        <v>2.73608854716406e-14</v>
-      </c>
-      <c r="Q3">
-        <v>1.454939734176239e-15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>1.454939734176238e-15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C4">
-        <v>1794.200265072466</v>
+        <v>2325.428508712643</v>
       </c>
       <c r="D4">
-        <v>0.7144121696343025</v>
+        <v>6.37127851875549e-11</v>
       </c>
       <c r="E4">
-        <v>0.2855878303656975</v>
+        <v>5.785990133344232e-11</v>
       </c>
       <c r="F4">
-        <v>2.015912343824979e-11</v>
+        <v>5.640274421007439e-11</v>
       </c>
       <c r="G4">
-        <v>3.017095707442236e-11</v>
+        <v>3.068646567658506e-11</v>
       </c>
       <c r="H4">
-        <v>5.64027442100744e-11</v>
+        <v>2.802555180842319e-11</v>
       </c>
       <c r="I4">
-        <v>9.709389530481994e-12</v>
+        <v>4.612516690535234e-11</v>
       </c>
       <c r="J4">
-        <v>1.418596402727105e-11</v>
+        <v>1.991967819890898e-11</v>
       </c>
       <c r="K4">
-        <v>4.612516690535234e-11</v>
+        <v>3.722965416137701e-11</v>
       </c>
       <c r="L4">
-        <v>8.403614240164726e-12</v>
+        <v>9.314323296899238e-11</v>
       </c>
       <c r="M4">
-        <v>1.809429625663297e-11</v>
+        <v>4.382962829169359e-19</v>
       </c>
       <c r="N4">
-        <v>9.314323296899238e-11</v>
+        <v>4.297062972716319e-14</v>
       </c>
       <c r="O4">
-        <v>1.849062443555824e-19</v>
-      </c>
-      <c r="P4">
-        <v>1.915654199133751e-14</v>
-      </c>
-      <c r="Q4">
-        <v>1.454939734176238e-15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>1.454939734176238e-15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="C5">
-        <v>1432.018568774195</v>
+        <v>1846.368059946811</v>
       </c>
       <c r="D5">
-        <v>0.6776373508166486</v>
+        <v>3.43905745951983e-11</v>
       </c>
       <c r="E5">
-        <v>0.3223626491833514</v>
+        <v>4.02931273217378e-11</v>
       </c>
       <c r="F5">
-        <v>1.258524151852936e-11</v>
+        <v>5.640274421007441e-11</v>
       </c>
       <c r="G5">
-        <v>2.375855059916808e-11</v>
+        <v>1.656378988623667e-11</v>
       </c>
       <c r="H5">
-        <v>5.640274421007439e-11</v>
+        <v>1.918810972652009e-11</v>
       </c>
       <c r="I5">
-        <v>6.061524084263716e-12</v>
+        <v>4.612516690535231e-11</v>
       </c>
       <c r="J5">
-        <v>1.106082372976085e-11</v>
+        <v>1.254417052759283e-11</v>
       </c>
       <c r="K5">
-        <v>4.612516690535234e-11</v>
+        <v>2.490463453886263e-11</v>
       </c>
       <c r="L5">
-        <v>5.902126873750809e-12</v>
+        <v>9.314323296899238e-11</v>
       </c>
       <c r="M5">
-        <v>1.391830400160514e-11</v>
+        <v>2.760116533820939e-19</v>
       </c>
       <c r="N5">
-        <v>9.314323296899241e-11</v>
+        <v>2.73608854716406e-14</v>
       </c>
       <c r="O5">
-        <v>1.298655653087218e-19</v>
-      </c>
-      <c r="P5">
-        <v>1.431723999390397e-14</v>
-      </c>
-      <c r="Q5">
-        <v>1.454939734176238e-15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>1.454939734176239e-15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C6">
-        <v>1176.095474847604</v>
+        <v>1515.685061922002</v>
       </c>
       <c r="D6">
-        <v>0.6487853352766654</v>
+        <v>2.015912343824979e-11</v>
       </c>
       <c r="E6">
-        <v>0.3512146647233346</v>
+        <v>3.017095707442236e-11</v>
       </c>
       <c r="F6">
-        <v>8.257176960307113e-12</v>
+        <v>5.64027442100744e-11</v>
       </c>
       <c r="G6">
-        <v>1.940748033842385e-11</v>
+        <v>9.709389530481994e-12</v>
       </c>
       <c r="H6">
-        <v>5.64027442100744e-11</v>
+        <v>1.418596402727105e-11</v>
       </c>
       <c r="I6">
-        <v>3.976965951685424e-12</v>
+        <v>4.612516690535234e-11</v>
       </c>
       <c r="J6">
-        <v>8.963856435687089e-12</v>
+        <v>8.403614240164726e-12</v>
       </c>
       <c r="K6">
-        <v>4.612516690535233e-11</v>
+        <v>1.809429625663297e-11</v>
       </c>
       <c r="L6">
-        <v>4.302650490964341e-12</v>
+        <v>9.314323296899238e-11</v>
       </c>
       <c r="M6">
-        <v>1.115800476494828e-11</v>
+        <v>1.849062443555824e-19</v>
       </c>
       <c r="N6">
-        <v>9.314323296899241e-11</v>
+        <v>1.915654199133751e-14</v>
       </c>
       <c r="O6">
-        <v>9.467199711005822e-20</v>
-      </c>
-      <c r="P6">
-        <v>1.121650575483549e-14</v>
-      </c>
-      <c r="Q6">
-        <v>1.454939734176238e-15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>1.454939734176238e-15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="C7">
-        <v>988.8113697170771</v>
+        <v>1275.070533813299</v>
       </c>
       <c r="D7">
-        <v>0.6260068852660274</v>
+        <v>1.258524151852936e-11</v>
       </c>
       <c r="E7">
-        <v>0.3739931147339726</v>
+        <v>2.375855059916808e-11</v>
       </c>
       <c r="F7">
-        <v>5.639762967220213e-12</v>
+        <v>5.640274421007439e-11</v>
       </c>
       <c r="G7">
-        <v>1.629808202221472e-11</v>
+        <v>6.061524084263716e-12</v>
       </c>
       <c r="H7">
-        <v>5.640274421007441e-11</v>
+        <v>1.106082372976085e-11</v>
       </c>
       <c r="I7">
-        <v>2.716321256529898e-12</v>
+        <v>4.612516690535234e-11</v>
       </c>
       <c r="J7">
-        <v>7.479046367580029e-12</v>
+        <v>5.902126873750809e-12</v>
       </c>
       <c r="K7">
-        <v>4.612516690535235e-11</v>
+        <v>1.391830400160514e-11</v>
       </c>
       <c r="L7">
-        <v>3.232644996967949e-12</v>
+        <v>9.314323296899241e-11</v>
       </c>
       <c r="M7">
-        <v>9.22755268128724e-12</v>
+        <v>1.298655653087218e-19</v>
       </c>
       <c r="N7">
-        <v>9.314323296899237e-11</v>
+        <v>1.431723999390397e-14</v>
       </c>
       <c r="O7">
-        <v>7.112847265969812e-20</v>
-      </c>
-      <c r="P7">
-        <v>9.102782460108391e-15</v>
-      </c>
-      <c r="Q7">
-        <v>1.454939734176238e-15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>1.454939734176238e-15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="C8">
-        <v>847.5791672319889</v>
+        <v>1093.438066504448</v>
       </c>
       <c r="D8">
-        <v>0.6078442204095839</v>
+        <v>8.257176960307113e-12</v>
       </c>
       <c r="E8">
-        <v>0.3921557795904161</v>
+        <v>1.940748033842385e-11</v>
       </c>
       <c r="F8">
-        <v>3.982049074222181e-12</v>
+        <v>5.64027442100744e-11</v>
       </c>
       <c r="G8">
-        <v>1.398453282740816e-11</v>
+        <v>3.976965951685424e-12</v>
       </c>
       <c r="H8">
-        <v>5.640274421007439e-11</v>
+        <v>8.963856435687089e-12</v>
       </c>
       <c r="I8">
-        <v>1.917904104786566e-12</v>
+        <v>4.612516690535233e-11</v>
       </c>
       <c r="J8">
-        <v>6.382796726475376e-12</v>
+        <v>4.302650490964341e-12</v>
       </c>
       <c r="K8">
-        <v>4.612516690535234e-11</v>
+        <v>1.115800476494828e-11</v>
       </c>
       <c r="L8">
-        <v>2.489959774863622e-12</v>
+        <v>9.314323296899241e-11</v>
       </c>
       <c r="M8">
-        <v>7.817031626422827e-12</v>
+        <v>9.467199711005822e-20</v>
       </c>
       <c r="N8">
-        <v>9.314323296899238e-11</v>
+        <v>1.121650575483549e-14</v>
       </c>
       <c r="O8">
-        <v>5.478703536461699e-20</v>
-      </c>
-      <c r="P8">
-        <v>7.591192266199357e-15</v>
-      </c>
-      <c r="Q8">
-        <v>1.454939734176238e-15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>1.454939734176238e-15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="C9">
-        <v>738.2877700156351</v>
+        <v>952.43716456051</v>
       </c>
       <c r="D9">
-        <v>0.5931999461775488</v>
+        <v>5.639762967220213e-12</v>
       </c>
       <c r="E9">
-        <v>0.4068000538224512</v>
+        <v>1.629808202221472e-11</v>
       </c>
       <c r="F9">
-        <v>2.891067175626593e-12</v>
+        <v>5.640274421007441e-11</v>
       </c>
       <c r="G9">
-        <v>1.220678405844064e-11</v>
+        <v>2.716321256529898e-12</v>
       </c>
       <c r="H9">
-        <v>5.64027442100744e-11</v>
+        <v>7.479046367580029e-12</v>
       </c>
       <c r="I9">
-        <v>1.392446325998888e-12</v>
+        <v>4.612516690535235e-11</v>
       </c>
       <c r="J9">
-        <v>5.54598466075954e-12</v>
+        <v>3.232644996967949e-12</v>
       </c>
       <c r="K9">
-        <v>4.612516690535235e-11</v>
+        <v>9.22755268128724e-12</v>
       </c>
       <c r="L9">
-        <v>1.958420796979672e-12</v>
+        <v>9.314323296899237e-11</v>
       </c>
       <c r="M9">
-        <v>6.749845452655382e-12</v>
+        <v>7.112847265969812e-20</v>
       </c>
       <c r="N9">
-        <v>9.314323296899237e-11</v>
+        <v>9.102782460108391e-15</v>
       </c>
       <c r="O9">
-        <v>4.30914870778599e-20</v>
-      </c>
-      <c r="P9">
-        <v>6.468321500564735e-15</v>
-      </c>
-      <c r="Q9">
-        <v>1.454939734176238e-15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.454939734176238e-15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C10">
-        <v>651.8067143092799</v>
+        <v>840.4755529091152</v>
       </c>
       <c r="D10">
-        <v>0.581259505129167</v>
+        <v>3.982049074222181e-12</v>
       </c>
       <c r="E10">
-        <v>0.418740494870833</v>
+        <v>1.398453282740816e-11</v>
       </c>
       <c r="F10">
-        <v>2.149410912199894e-12</v>
+        <v>5.640274421007439e-11</v>
       </c>
       <c r="G10">
-        <v>1.080441386694438e-11</v>
+        <v>1.917904104786566e-12</v>
       </c>
       <c r="H10">
-        <v>5.640274421007441e-11</v>
+        <v>6.382796726475376e-12</v>
       </c>
       <c r="I10">
-        <v>1.035236867889792e-12</v>
+        <v>4.612516690535234e-11</v>
       </c>
       <c r="J10">
-        <v>4.889637116948388e-12</v>
+        <v>2.489959774863622e-12</v>
       </c>
       <c r="K10">
-        <v>4.612516690535231e-11</v>
+        <v>7.817031626422827e-12</v>
       </c>
       <c r="L10">
-        <v>1.568021315949104e-12</v>
+        <v>9.314323296899238e-11</v>
       </c>
       <c r="M10">
-        <v>5.919214249580304e-12</v>
+        <v>5.478703536461699e-20</v>
       </c>
       <c r="N10">
-        <v>9.314323296899238e-11</v>
+        <v>7.591192266199357e-15</v>
       </c>
       <c r="O10">
-        <v>3.450145667276173e-20</v>
-      </c>
-      <c r="P10">
-        <v>5.608100803950165e-15</v>
-      </c>
-      <c r="Q10">
-        <v>1.454939734176239e-15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.454939734176238e-15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="C11">
-        <v>582.0405916253386</v>
+        <v>749.8736038479886</v>
       </c>
       <c r="D11">
-        <v>0.5714184145286066</v>
+        <v>2.891067175626593e-12</v>
       </c>
       <c r="E11">
-        <v>0.4285815854713934</v>
+        <v>1.220678405844064e-11</v>
       </c>
       <c r="F11">
-        <v>1.631047300801405e-12</v>
+        <v>5.64027442100744e-11</v>
       </c>
       <c r="G11">
-        <v>9.673820031810969e-12</v>
+        <v>1.392446325998888e-12</v>
       </c>
       <c r="H11">
-        <v>5.64027442100744e-11</v>
+        <v>5.54598466075954e-12</v>
       </c>
       <c r="I11">
-        <v>7.855735213205777e-13</v>
+        <v>4.612516690535235e-11</v>
       </c>
       <c r="J11">
-        <v>4.363132159696031e-12</v>
+        <v>1.958420796979672e-12</v>
       </c>
       <c r="K11">
-        <v>4.612516690535233e-11</v>
+        <v>6.749845452655382e-12</v>
       </c>
       <c r="L11">
-        <v>1.274859404730175e-12</v>
+        <v>9.314323296899237e-11</v>
       </c>
       <c r="M11">
-        <v>5.257368619776426e-12</v>
+        <v>4.30914870778599e-20</v>
       </c>
       <c r="N11">
-        <v>9.314323296899236e-11</v>
+        <v>6.468321500564735e-15</v>
       </c>
       <c r="O11">
-        <v>2.805096210668391e-20</v>
-      </c>
-      <c r="P11">
-        <v>4.932119969506507e-15</v>
-      </c>
-      <c r="Q11">
-        <v>1.454939734176238e-15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.454939734176238e-15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="C12">
-        <v>524.8047879261476</v>
+        <v>675.3586902875903</v>
       </c>
       <c r="D12">
-        <v>0.5632253132116996</v>
+        <v>2.149410912199894e-12</v>
       </c>
       <c r="E12">
-        <v>0.4367746867883004</v>
+        <v>1.080441386694438e-11</v>
       </c>
       <c r="F12">
-        <v>1.259945214890612e-12</v>
+        <v>5.640274421007441e-11</v>
       </c>
       <c r="G12">
-        <v>8.745492940589003e-12</v>
+        <v>1.035236867889792e-12</v>
       </c>
       <c r="H12">
-        <v>5.64027442100744e-11</v>
+        <v>4.889637116948388e-12</v>
       </c>
       <c r="I12">
-        <v>6.068368456551246e-13</v>
+        <v>4.612516690535231e-11</v>
       </c>
       <c r="J12">
-        <v>3.932728688171213e-12</v>
+        <v>1.568021315949104e-12</v>
       </c>
       <c r="K12">
-        <v>4.612516690535234e-11</v>
+        <v>5.919214249580304e-12</v>
       </c>
       <c r="L12">
-        <v>1.050451780020591e-12</v>
+        <v>9.314323296899238e-11</v>
       </c>
       <c r="M12">
-        <v>4.719531054924642e-12</v>
+        <v>3.450145667276173e-20</v>
       </c>
       <c r="N12">
-        <v>9.314323296899238e-11</v>
+        <v>5.608100803950165e-15</v>
       </c>
       <c r="O12">
-        <v>2.31132805444478e-20</v>
-      </c>
-      <c r="P12">
-        <v>4.389482497950645e-15</v>
-      </c>
-      <c r="Q12">
-        <v>1.454939734176238e-15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.454939734176239e-15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="C13">
-        <v>477.1536288544887</v>
+        <v>613.2060184269662</v>
       </c>
       <c r="D13">
-        <v>0.55634009342846</v>
+        <v>1.631047300801405e-12</v>
       </c>
       <c r="E13">
-        <v>0.44365990657154</v>
+        <v>9.673820031810969e-12</v>
       </c>
       <c r="F13">
-        <v>9.886348296005931e-13</v>
+        <v>5.64027442100744e-11</v>
       </c>
       <c r="G13">
-        <v>7.971268273016074e-12</v>
+        <v>7.855735213205777e-13</v>
       </c>
       <c r="H13">
-        <v>5.64027442100744e-11</v>
+        <v>4.363132159696031e-12</v>
       </c>
       <c r="I13">
-        <v>4.76163593789038e-13</v>
+        <v>4.612516690535233e-11</v>
       </c>
       <c r="J13">
-        <v>3.575183113191322e-12</v>
+        <v>1.274859404730175e-12</v>
       </c>
       <c r="K13">
-        <v>4.612516690535234e-11</v>
+        <v>5.257368619776426e-12</v>
       </c>
       <c r="L13">
-        <v>8.757684695632688e-13</v>
+        <v>9.314323296899236e-11</v>
       </c>
       <c r="M13">
-        <v>4.275093562781488e-12</v>
+        <v>2.805096210668391e-20</v>
       </c>
       <c r="N13">
-        <v>9.314323296899237e-11</v>
+        <v>4.932119969506507e-15</v>
       </c>
       <c r="O13">
-        <v>1.926969206392391e-20</v>
-      </c>
-      <c r="P13">
-        <v>3.945941388651043e-15</v>
-      </c>
-      <c r="Q13">
-        <v>1.454939734176239e-15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.454939734176238e-15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="C14">
-        <v>436.9664473284093</v>
+        <v>560.7208124317073</v>
       </c>
       <c r="D14">
-        <v>0.5505038211281675</v>
+        <v>1.259945214890612e-12</v>
       </c>
       <c r="E14">
-        <v>0.4494961788718325</v>
+        <v>8.745492940589003e-12</v>
       </c>
       <c r="F14">
-        <v>7.86577594908085e-13</v>
+        <v>5.64027442100744e-11</v>
       </c>
       <c r="G14">
-        <v>7.316838348724084e-12</v>
+        <v>6.068368456551246e-13</v>
       </c>
       <c r="H14">
-        <v>5.640274421007439e-11</v>
+        <v>3.932728688171213e-12</v>
       </c>
       <c r="I14">
-        <v>3.788452552664822e-13</v>
+        <v>4.612516690535234e-11</v>
       </c>
       <c r="J14">
-        <v>3.274025318497131e-12</v>
+        <v>1.050451780020591e-12</v>
       </c>
       <c r="K14">
-        <v>4.612516690535234e-11</v>
+        <v>4.719531054924642e-12</v>
       </c>
       <c r="L14">
-        <v>7.377658592188511e-13</v>
+        <v>9.314323296899238e-11</v>
       </c>
       <c r="M14">
-        <v>3.902517844539909e-12</v>
+        <v>2.31132805444478e-20</v>
       </c>
       <c r="N14">
-        <v>9.314323296899241e-11</v>
+        <v>4.389482497950645e-15</v>
       </c>
       <c r="O14">
-        <v>1.623319566359022e-20</v>
-      </c>
-      <c r="P14">
-        <v>3.577734879810241e-15</v>
-      </c>
-      <c r="Q14">
-        <v>1.454939734176238e-15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>1.454939734176238e-15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="C15">
-        <v>402.6853690832314</v>
+        <v>515.9130948068463</v>
       </c>
       <c r="D15">
-        <v>0.5455172522328738</v>
+        <v>9.886348296005931e-13</v>
       </c>
       <c r="E15">
-        <v>0.4544827477671262</v>
+        <v>7.971268273016074e-12</v>
       </c>
       <c r="F15">
-        <v>6.336029465939576e-13</v>
+        <v>5.64027442100744e-11</v>
       </c>
       <c r="G15">
-        <v>6.757175222162921e-12</v>
+        <v>4.76163593789038e-13</v>
       </c>
       <c r="H15">
-        <v>5.64027442100744e-11</v>
+        <v>3.575183113191322e-12</v>
       </c>
       <c r="I15">
-        <v>3.051669302480356e-13</v>
+        <v>4.612516690535234e-11</v>
       </c>
       <c r="J15">
-        <v>3.017296713331883e-12</v>
+        <v>8.757684695632688e-13</v>
       </c>
       <c r="K15">
-        <v>4.612516690535234e-11</v>
+        <v>4.275093562781488e-12</v>
       </c>
       <c r="L15">
-        <v>6.272999695238869e-13</v>
+        <v>9.314323296899237e-11</v>
       </c>
       <c r="M15">
-        <v>3.586263101110327e-12</v>
+        <v>1.926969206392391e-20</v>
       </c>
       <c r="N15">
-        <v>9.314323296899241e-11</v>
+        <v>3.945941388651043e-15</v>
       </c>
       <c r="O15">
-        <v>1.380259470914975e-20</v>
-      </c>
-      <c r="P15">
-        <v>3.2679342809932e-15</v>
-      </c>
-      <c r="Q15">
-        <v>1.454939734176238e-15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>1.454939734176239e-15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
+        <v>900</v>
+      </c>
+      <c r="C16">
+        <v>477.2866518144843</v>
+      </c>
+      <c r="D16">
+        <v>7.86577594908085e-13</v>
+      </c>
+      <c r="E16">
+        <v>7.316838348724084e-12</v>
+      </c>
+      <c r="F16">
+        <v>5.640274421007439e-11</v>
+      </c>
+      <c r="G16">
+        <v>3.788452552664822e-13</v>
+      </c>
+      <c r="H16">
+        <v>3.274025318497131e-12</v>
+      </c>
+      <c r="I16">
+        <v>4.612516690535234e-11</v>
+      </c>
+      <c r="J16">
+        <v>7.377658592188511e-13</v>
+      </c>
+      <c r="K16">
+        <v>3.902517844539909e-12</v>
+      </c>
+      <c r="L16">
+        <v>9.314323296899241e-11</v>
+      </c>
+      <c r="M16">
+        <v>1.623319566359022e-20</v>
+      </c>
+      <c r="N16">
+        <v>3.577734879810241e-15</v>
+      </c>
+      <c r="O16">
+        <v>1.454939734176238e-15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>950</v>
+      </c>
+      <c r="C17">
+        <v>443.6983468562898</v>
+      </c>
+      <c r="D17">
+        <v>6.336029465939576e-13</v>
+      </c>
+      <c r="E17">
+        <v>6.757175222162921e-12</v>
+      </c>
+      <c r="F17">
+        <v>5.64027442100744e-11</v>
+      </c>
+      <c r="G17">
+        <v>3.051669302480356e-13</v>
+      </c>
+      <c r="H17">
+        <v>3.017296713331883e-12</v>
+      </c>
+      <c r="I17">
+        <v>4.612516690535234e-11</v>
+      </c>
+      <c r="J17">
+        <v>6.272999695238869e-13</v>
+      </c>
+      <c r="K17">
+        <v>3.586263101110327e-12</v>
+      </c>
+      <c r="L17">
+        <v>9.314323296899241e-11</v>
+      </c>
+      <c r="M17">
+        <v>1.380259470914975e-20</v>
+      </c>
+      <c r="N17">
+        <v>3.2679342809932e-15</v>
+      </c>
+      <c r="O17">
+        <v>1.454939734176238e-15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
         <v>1000</v>
       </c>
-      <c r="C16">
-        <v>373.144937841188</v>
-      </c>
-      <c r="D16">
-        <v>0.5412254524764374</v>
-      </c>
-      <c r="E16">
-        <v>0.4587745475235626</v>
-      </c>
-      <c r="F16">
+      <c r="C18">
+        <v>414.262140605755</v>
+      </c>
+      <c r="D18">
         <v>5.160735600191945e-13</v>
       </c>
-      <c r="G16">
+      <c r="E18">
         <v>6.273636056717363e-12</v>
       </c>
-      <c r="H16">
+      <c r="F18">
         <v>5.64027442100744e-11</v>
       </c>
-      <c r="I16">
+      <c r="G18">
         <v>2.48560371980339e-13</v>
       </c>
-      <c r="J16">
+      <c r="H18">
         <v>2.796127680012017e-12</v>
       </c>
-      <c r="K16">
+      <c r="I18">
         <v>4.612516690535233e-11</v>
       </c>
-      <c r="L16">
+      <c r="J18">
         <v>5.378313113705426e-13</v>
       </c>
-      <c r="M16">
+      <c r="K18">
         <v>3.314868193235728e-12</v>
       </c>
-      <c r="N16">
+      <c r="L18">
         <v>9.314323296899241e-11</v>
       </c>
-      <c r="O16">
+      <c r="M18">
         <v>1.183399963875728e-20</v>
       </c>
-      <c r="P16">
+      <c r="N18">
         <v>3.004197974677624e-15</v>
       </c>
-      <c r="Q16">
+      <c r="O18">
         <v>1.454939734176238e-15</v>
       </c>
     </row>
